--- a/data/processed/Mike_data_land_sink_by_country.xlsx
+++ b/data/processed/Mike_data_land_sink_by_country.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D196"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>SLAND</t>
+          <t>SLAND_mean</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SLAND_std</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>SLAND_total_forest_mean</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>SLAND_total_forest_std</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SLAND_managed_forest_mean</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SLAND_managed_forest_std</t>
         </is>
       </c>
     </row>
@@ -465,6 +490,21 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -483,7 +523,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.01059573423117399</v>
+        <v>0.01059573236852884</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01130954641848803</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.007738611195236444</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.007473924662917852</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.004776759073138237</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.005986723583191633</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +556,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.05324195325374603</v>
+        <v>0.05324195697903633</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.04181370139122009</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01012145634740591</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01018311083316803</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.00921508576720953</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.009480474516749382</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +589,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.048541308700806e-06</v>
+        <v>6.048540853953455e-06</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.316904101462569e-05</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -537,7 +622,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.0002381322119617835</v>
+        <v>0.0002381322992732748</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0002775568864308298</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -555,7 +655,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.000120887008961e-05</v>
+        <v>3.000120523211081e-05</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0002237195149064064</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -573,7 +688,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.01064279861748219</v>
+        <v>0.01064280234277248</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.008261156268417835</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.005245476961135864</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.003773537697270513</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.003825581632554531</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.002938505727797747</v>
       </c>
     </row>
     <row r="9">
@@ -593,6 +723,21 @@
       <c r="D9" t="n">
         <v>0.03134971484541893</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.0583685077726841</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01244294084608555</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.006778901908546686</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01192959398031235</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.006390383932739496</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -609,7 +754,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.00947294756770134</v>
+        <v>0.009472949430346489</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.007192861754447222</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0003512688854243606</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0005830946611240506</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0003512688854243606</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0005830946611240506</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +787,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.01087905187159777</v>
+        <v>0.01087904814630747</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.01434081047773361</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.002880634507164359</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.002279103733599186</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.002880634507164359</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.002279103733599186</v>
       </c>
     </row>
     <row r="12">
@@ -645,7 +820,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.2816677093505859</v>
+        <v>0.2816677689552307</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2471063733100891</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2415421158075333</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.2155986428260803</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1254366040229797</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1140152812004089</v>
       </c>
     </row>
     <row r="13">
@@ -663,7 +853,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.0006014779792167246</v>
+        <v>0.0006014780374243855</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.001107995398342609</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -681,7 +886,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.003094382584095001</v>
+        <v>0.003094383282586932</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.007562740240246058</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -701,6 +921,21 @@
       <c r="D15" t="n">
         <v>0.01133025344461203</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.009503868408501148</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.009751536883413792</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.007836631499230862</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.009752723388373852</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.007678670808672905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -717,7 +952,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.0005437069339677691</v>
+        <v>0.000543707050383091</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0004962447565048933</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0003914032131433487</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0004105389234609902</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0003914032131433487</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0004105389234609902</v>
       </c>
     </row>
     <row r="17">
@@ -735,7 +985,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.005961492192000151</v>
+        <v>0.005961492657661438</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.005576050840318203</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -753,7 +1018,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.02399389818310738</v>
+        <v>0.02399389445781708</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01566355116665363</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.01903358288109303</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01235725823789835</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.01903358288109303</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.01235725823789835</v>
       </c>
     </row>
     <row r="19">
@@ -771,7 +1051,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.01840434223413467</v>
+        <v>0.01840434409677982</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.01330061815679073</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.008903475478291512</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.006402354687452316</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.007961533032357693</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.006064689252525568</v>
       </c>
     </row>
     <row r="20">
@@ -789,7 +1084,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.02963969297707081</v>
+        <v>0.0296397041529417</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.02467427402734756</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0254968274384737</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02180438488721848</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.01691093854606152</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.01650117337703705</v>
       </c>
     </row>
     <row r="21">
@@ -807,7 +1117,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.00888583529740572</v>
+        <v>0.008885837160050869</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.005616947077214718</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0006792736821807921</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.00109127804171294</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0006792736821807921</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.00109127804171294</v>
       </c>
     </row>
     <row r="22">
@@ -825,7 +1150,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.0003313511260785162</v>
+        <v>0.0003313512424938381</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0005342735094018281</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.000188625359442085</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0003159578482154757</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.000188625359442085</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0003159578482154757</v>
       </c>
     </row>
     <row r="23">
@@ -843,7 +1183,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4.775529873768392e-07</v>
+        <v>4.775531010636769e-07</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.872604912023235e-06</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -861,7 +1216,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.008600108325481415</v>
+        <v>0.008600110188126564</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01058240327984095</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.008022736757993698</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.005711703561246395</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.002878032857552171</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.004701459314674139</v>
       </c>
     </row>
     <row r="25">
@@ -879,7 +1249,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9.451465302845463e-06</v>
+        <v>9.451467121834867e-06</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.561156700015999e-05</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9.747705917106941e-06</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.542265039868653e-05</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9.747705917106941e-06</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.542265039868653e-05</v>
       </c>
     </row>
     <row r="26">
@@ -897,7 +1282,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.00032520413515158</v>
+        <v>0.0003252041933592409</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0004994514165446162</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4.698449265561067e-05</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0001079617941286415</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.698449265561067e-05</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0001079617941286415</v>
       </c>
     </row>
     <row r="27">
@@ -915,7 +1315,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.06491125375032425</v>
+        <v>0.06491123139858246</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.03411036729812622</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.05458004027605057</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.03190385177731514</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.01786286383867264</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.01313710492104292</v>
       </c>
     </row>
     <row r="28">
@@ -933,7 +1348,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6.411080903490074e-06</v>
+        <v>6.411079539248021e-06</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.310877946205437e-05</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -951,7 +1381,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.05400969088077545</v>
+        <v>0.05400967225432396</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.01730453595519066</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0418560653924942</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01394136343151331</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0418560653924942</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.01394136343151331</v>
       </c>
     </row>
     <row r="30">
@@ -969,7 +1414,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.03230655565857887</v>
+        <v>0.03230655193328857</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.01586532779037952</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.02344845980405807</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0113331712782383</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.02344845980405807</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.0113331712782383</v>
       </c>
     </row>
     <row r="31">
@@ -987,7 +1447,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.0004968751454725862</v>
+        <v>0.0004968752036802471</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.000938360346481204</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0002469330211170018</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0004208720347378403</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0002469330211170018</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0004208720347378403</v>
       </c>
     </row>
     <row r="32">
@@ -1005,7 +1480,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.003732083365321159</v>
+        <v>0.003732084296643734</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.00208905222825706</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.001024577533826232</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0006439076969400048</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.001024577533826232</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0006439076969400048</v>
       </c>
     </row>
     <row r="33">
@@ -1023,7 +1513,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4.159193122177385e-05</v>
+        <v>4.15919566876255e-05</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9.075364505406469e-05</v>
+      </c>
+      <c r="F33" t="n">
+        <v>7.113680112524889e-06</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.712781158857979e-05</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1041,7 +1546,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.1872355192899704</v>
+        <v>0.1872354596853256</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.06911066174507141</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.185164138674736</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.06862904876470566</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.1280476599931717</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.04716786369681358</v>
       </c>
     </row>
     <row r="35">
@@ -1059,7 +1579,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>6.560156862178701e-07</v>
+        <v>6.560150040968438e-07</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.757798600010574e-05</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1077,7 +1612,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.04655374214053154</v>
+        <v>0.04655374586582184</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.01658832281827927</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.02197670564055443</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.006825362797826529</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.02180787175893784</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.00681531336158514</v>
       </c>
     </row>
     <row r="37">
@@ -1095,7 +1645,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.03883516788482666</v>
+        <v>0.03883516415953636</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.01990075036883354</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.03417829051613808</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.01713441871106625</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.02415890991687775</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.01246133632957935</v>
       </c>
     </row>
     <row r="38">
@@ -1113,7 +1678,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.001038349349983037</v>
+        <v>0.001038349699229002</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.00113856780808419</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0002212380204582587</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0002926315646618605</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0001797837176127359</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.0002289595431648195</v>
       </c>
     </row>
     <row r="39">
@@ -1131,7 +1711,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.1524171382188797</v>
+        <v>0.1524171680212021</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.06814445555210114</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1237227097153664</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.055800911039114</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.09947890043258667</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.04542744904756546</v>
       </c>
     </row>
     <row r="40">
@@ -1149,7 +1744,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-7.804947017575614e-06</v>
+        <v>-7.804950655554421e-06</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0008805644465610385</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0001277446281164885</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0005096097593195736</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0001277446281164885</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.0005096097593195736</v>
       </c>
     </row>
     <row r="41">
@@ -1167,7 +1777,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.01638610474765301</v>
+        <v>0.01638610661029816</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.008361039683222771</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.01511417236179113</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.007814313285052776</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.01225866470485926</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.005661003291606903</v>
       </c>
     </row>
     <row r="42">
@@ -1185,7 +1810,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.02371708303689957</v>
+        <v>0.02371708676218987</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.01103220880031586</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.02362047135829926</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.01090496685355902</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.01553022302687168</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.007029497064650059</v>
       </c>
     </row>
     <row r="43">
@@ -1203,7 +1843,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.001529586734250188</v>
+        <v>0.001529587083496153</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.001013707369565964</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0009689242579042912</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0007341678719967604</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0009689242579042912</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0007341678719967604</v>
       </c>
     </row>
     <row r="44">
@@ -1223,6 +1878,21 @@
       <c r="D44" t="n">
         <v>0.03578363358974457</v>
       </c>
+      <c r="E44" t="n">
+        <v>0.01545680500566959</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.005967977456748486</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.00433227838948369</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.005967977456748486</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.00433227838948369</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1241,6 +1911,21 @@
       <c r="D45" t="n">
         <v>0.05712170898914337</v>
       </c>
+      <c r="E45" t="n">
+        <v>0.04160125926136971</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.05064551159739494</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03546283021569252</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.02457787841558456</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.02131370268762112</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1257,7 +1942,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.01864403858780861</v>
+        <v>0.01864404045045376</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.008692116476595402</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.01783358491957188</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.008605754002928734</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.01343367900699377</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.006540867034345865</v>
       </c>
     </row>
     <row r="47">
@@ -1275,7 +1975,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.00155198504216969</v>
+        <v>0.001551985624246299</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0008638378349132836</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0005711973644793034</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0004521782684605569</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0005711973644793034</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0004521782684605569</v>
       </c>
     </row>
     <row r="48">
@@ -1293,7 +2008,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.01483750343322754</v>
+        <v>0.02151628956198692</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.007464819587767124</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.01100126281380653</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.004852435551583767</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.01085629686713219</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.004879431333392859</v>
       </c>
     </row>
     <row r="49">
@@ -1311,7 +2041,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.007381183095276356</v>
+        <v>0.007381181232631207</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.005632875021547079</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1329,7 +2074,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-3.12353193976378e-07</v>
+        <v>-3.123534781934723e-07</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.100696226785658e-05</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1347,7 +2107,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.02533078193664551</v>
+        <v>0.02533077262341976</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.03389271348714828</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.02390185743570328</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.02802553400397301</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.00229647196829319</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.01864072866737843</v>
       </c>
     </row>
     <row r="52">
@@ -1365,7 +2140,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.01458839606493711</v>
+        <v>0.01458839885890484</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.007962189614772797</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.01407347992062569</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.008109120652079582</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.004136969801038504</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.002652405528351665</v>
       </c>
     </row>
     <row r="53">
@@ -1383,7 +2173,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.001789311529137194</v>
+        <v>0.001789311761967838</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.001017143717035651</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.001678248634561896</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0009761597611941397</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.001445058500394225</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0009675870533101261</v>
       </c>
     </row>
     <row r="54">
@@ -1401,7 +2206,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.02543543837964535</v>
+        <v>0.0254354290664196</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.01293920539319515</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.02194119244813919</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.01176400948315859</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.02070933952927589</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.01088033337146044</v>
       </c>
     </row>
     <row r="55">
@@ -1419,7 +2239,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4.1670191421872e-06</v>
+        <v>4.167019596934551e-06</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.188715214084368e-05</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1437,7 +2272,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.01174629013985395</v>
+        <v>0.01174629386514425</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.005419529508799314</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.01145994104444981</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.005442731082439423</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.003243266372010112</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.002158999675884843</v>
       </c>
     </row>
     <row r="57">
@@ -1455,7 +2305,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.0239100269973278</v>
+        <v>0.02391002140939236</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.01032569073140621</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0226579587906599</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01017443928867579</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.02003438957035542</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.008870695717632771</v>
       </c>
     </row>
     <row r="58">
@@ -1473,7 +2338,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.02949543669819832</v>
+        <v>0.02949544228613377</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.014058374799788</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.02810435555875301</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.01362332329154015</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.02778451517224312</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.01337444223463535</v>
       </c>
     </row>
     <row r="59">
@@ -1493,6 +2373,21 @@
       <c r="D59" t="n">
         <v>0.01767271943390369</v>
       </c>
+      <c r="E59" t="n">
+        <v>0.01218390092253685</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.008237331174314022</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.005266604945063591</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.008237331174314022</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.005266604945063591</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1509,7 +2404,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.05093520879745483</v>
+        <v>0.05093520134687424</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.01538174599409103</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.01538271177560091</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.005239612422883511</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.01517537888139486</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.005196210462599993</v>
       </c>
     </row>
     <row r="61">
@@ -1527,7 +2437,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.0007591546163894236</v>
+        <v>0.0007591545581817627</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.001024393131956458</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0003571109846234322</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0005674742278642952</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.0003571109846234322</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.0005674742278642952</v>
       </c>
     </row>
     <row r="62">
@@ -1545,7 +2470,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.00690588029101491</v>
+        <v>0.006905881222337484</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.003903318895027041</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.006348222959786654</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.003520633792504668</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.006348222959786654</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.003520633792504668</v>
       </c>
     </row>
     <row r="63">
@@ -1563,7 +2503,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.01109897531569004</v>
+        <v>0.01109897624701262</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.008131104521453381</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.009478193707764149</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.006127277854830027</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.009063685312867165</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.006046197842806578</v>
       </c>
     </row>
     <row r="64">
@@ -1583,6 +2538,21 @@
       <c r="D64" t="n">
         <v>0.02298467792570591</v>
       </c>
+      <c r="E64" t="n">
+        <v>0.005634082946926355</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.009711160324513912</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.004649202339351177</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.009589700028300285</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.004638360813260078</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1599,7 +2569,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.007330964785069227</v>
+        <v>0.007330965250730515</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.003521081525832415</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.004030581098049879</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.00225672428496182</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.004030581098049879</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.00225672428496182</v>
       </c>
     </row>
     <row r="66">
@@ -1619,6 +2604,21 @@
       <c r="D66" t="n">
         <v>0.01883810572326183</v>
       </c>
+      <c r="E66" t="n">
+        <v>0.01232369150966406</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.01125010848045349</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.007827520370483398</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.01091644912958145</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.007899253629148006</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1635,7 +2635,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.001478892401792109</v>
+        <v>0.001478892285376787</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.001327711390331388</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0004971209564246237</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0006550007383339107</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.0004971209564246237</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0006550007383339107</v>
       </c>
     </row>
     <row r="68">
@@ -1653,7 +2668,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.001430554082617164</v>
+        <v>0.001430553966201842</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.001483381609432399</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0002168439386878163</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0003279225202277303</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.0002168439386878163</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.0003279225202277303</v>
       </c>
     </row>
     <row r="69">
@@ -1671,7 +2701,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.005356875713914633</v>
+        <v>0.005356877110898495</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.00295502576045692</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.004598332569003105</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.002533258870244026</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.004598332569003105</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.002533258870244026</v>
       </c>
     </row>
     <row r="70">
@@ -1691,6 +2736,21 @@
       <c r="D70" t="n">
         <v>0.02901459857821465</v>
       </c>
+      <c r="E70" t="n">
+        <v>0.00976317934691906</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0151831116527319</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.005595103371888399</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.01379323843866587</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.005311342421919107</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1709,6 +2769,21 @@
       <c r="D71" t="n">
         <v>0.006322493311017752</v>
       </c>
+      <c r="E71" t="n">
+        <v>0.003708509728312492</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.004042558837682009</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.002614379860460758</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.00324120232835412</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.002112667541950941</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1725,7 +2800,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.004719179589301348</v>
+        <v>0.004719178657978773</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.002448685001581907</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.00414549745619297</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.002185657154768705</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.00414549745619297</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.002185657154768705</v>
       </c>
     </row>
     <row r="73">
@@ -1743,7 +2833,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.007646821439266205</v>
+        <v>0.007646825630217791</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.003245113650336862</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.005960159469395876</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.002601814223453403</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.005960159469395876</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.002601814223453403</v>
       </c>
     </row>
     <row r="74">
@@ -1763,6 +2868,21 @@
       <c r="D74" t="n">
         <v>0.006678784731775522</v>
       </c>
+      <c r="E74" t="n">
+        <v>0.004114085808396339</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.001015680725686252</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.001071133301593363</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.001015680725686252</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.001071133301593363</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1770,16 +2890,31 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Somaliland</t>
+          <t>India</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.001005477854050696</v>
+        <v>0.1359401494264603</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.04682430624961853</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.02625813521444798</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.01031842827796936</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.02482953108847141</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.009656980633735657</v>
       </c>
     </row>
     <row r="76">
@@ -1788,16 +2923,31 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.1359401494264603</v>
+        <v>0.004470798652619123</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.002629632595926523</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.003553828690201044</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.002048328053206205</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.003015789436176419</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.001763444044627249</v>
       </c>
     </row>
     <row r="77">
@@ -1806,16 +2956,31 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>SDN</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.004470799118280411</v>
+        <v>0.01665929891169071</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0116451745852828</v>
+      </c>
+      <c r="F77" t="n">
+        <v>7.614872447447851e-05</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0001600548712303862</v>
+      </c>
+      <c r="H77" t="n">
+        <v>7.614872447447851e-05</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.0001600548712303862</v>
       </c>
     </row>
     <row r="78">
@@ -1824,16 +2989,31 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>VNM</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.01665930077433586</v>
+        <v>0.02208899334073067</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.01069453731179237</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.01574687659740448</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.007425864692777395</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.01535408571362495</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.007269189693033695</v>
       </c>
     </row>
     <row r="79">
@@ -1842,16 +3022,31 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>TTO</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.02208899520337582</v>
+        <v>0.0003171222633682191</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0003331718617118895</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.000287025875877589</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0003465448971837759</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.000287025875877589</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0003465448971837759</v>
       </c>
     </row>
     <row r="80">
@@ -1860,16 +3055,31 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>TTO</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.000317122379783541</v>
+        <v>0.005499561782926321</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.004965939093381166</v>
+      </c>
+      <c r="F80" t="n">
+        <v>6.57088021398522e-05</v>
+      </c>
+      <c r="G80" t="n">
+        <v>9.058079740498215e-05</v>
+      </c>
+      <c r="H80" t="n">
+        <v>6.57088021398522e-05</v>
+      </c>
+      <c r="I80" t="n">
+        <v>9.058079740498215e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1878,16 +3088,31 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>BFA</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.005499560851603746</v>
+        <v>0.003637766232714057</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.003986732102930546</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1896,16 +3121,31 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>BFA</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.003637766232714057</v>
+        <v>0.04291331768035889</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.01430079434067011</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.03084723837673664</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01081861928105354</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.02933129854500294</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.01029899809509516</v>
       </c>
     </row>
     <row r="83">
@@ -1914,16 +3154,31 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.04291331022977829</v>
+        <v>0.01285400707274675</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.006269246805459261</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.00818953849375248</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.004474667366594076</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.007910972461104393</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.004467288963496685</v>
       </c>
     </row>
     <row r="84">
@@ -1932,16 +3187,31 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.01285401172935963</v>
+        <v>0.009230070747435093</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.003952768631279469</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.007966851815581322</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.003617238253355026</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.007686483208090067</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.003634544089436531</v>
       </c>
     </row>
     <row r="85">
@@ -1950,16 +3220,31 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>GNB</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.009230068884789944</v>
+        <v>0.0008369690040126443</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0005175509140826762</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0005866102292202413</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0003267918364144862</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.0005866102292202413</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.0003267918364144862</v>
       </c>
     </row>
     <row r="86">
@@ -1968,16 +3253,31 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>GNB</t>
+          <t>DJI</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.0008369690622203052</v>
+        <v>1.906622310343664e-05</v>
+      </c>
+      <c r="E86" t="n">
+        <v>8.372713637072593e-05</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1986,16 +3286,31 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>DJI</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1.906622310343664e-05</v>
+        <v>0.003363757627084851</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.003333259606733918</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2004,16 +3319,31 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>SEN</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.003363757859915495</v>
+        <v>0.001734192948788404</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.001879039453342557</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2022,16 +3352,31 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SEN</t>
+          <t>ERI</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.001734192715957761</v>
+        <v>0.001751743839122355</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.001455729478038847</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2040,16 +3385,31 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ERI</t>
+          <t>YEM</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.001751743140630424</v>
+        <v>0.001327251666225493</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.001653563464060426</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2058,16 +3418,31 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>YEM</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.001327251666225493</v>
+        <v>0.001312497421167791</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0009369413601234555</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.001081172376871109</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0009557416778989136</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.001081172376871109</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.0009557416778989136</v>
       </c>
     </row>
     <row r="92">
@@ -2076,16 +3451,31 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.001312497421167791</v>
+        <v>0.006452711299061775</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.003310874337330461</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.005916942376643419</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.00298802019096911</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.0057222587056458</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.002955910749733448</v>
       </c>
     </row>
     <row r="93">
@@ -2094,16 +3484,31 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>VCT</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.006452710833400488</v>
+        <v>1.800319114408921e-05</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4.646594243240543e-05</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2112,16 +3517,31 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Saint Vincent and the Grenadines</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>VCT</t>
+          <t>GMB</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1.800319114408921e-05</v>
+        <v>0.0001803377235773951</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.0002042533305939287</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2130,16 +3550,31 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.0001803376944735646</v>
+        <v>0.00835970975458622</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.004611996468156576</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.007636734750121832</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.004181674215942621</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.007188791409134865</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.003770658280700445</v>
       </c>
     </row>
     <row r="96">
@@ -2148,16 +3583,31 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.008359708823263645</v>
+        <v>0.01579750142991543</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.007356565911322832</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.01533629465848207</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.007165301125496626</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.01533629465848207</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.007165301125496626</v>
       </c>
     </row>
     <row r="97">
@@ -2166,16 +3616,31 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.01579750329256058</v>
+        <v>0.0628260150551796</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.01594170369207859</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.03422366082668304</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.01115935761481524</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.03365172818303108</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.01098336465656757</v>
       </c>
     </row>
     <row r="98">
@@ -2184,16 +3649,31 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Cabo Verde</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>CPV</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.062826007604599</v>
+        <v>1.19981204989017e-05</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3.532608752720989e-05</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2202,16 +3682,31 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CPV</t>
+          <t>MRT</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1.1998119589407e-05</v>
+        <v>0.0009666996193118393</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.001948958146385849</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2220,16 +3715,31 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.000966699852142483</v>
+        <v>0.001113424194045365</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.0009704802068881691</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.0007092983578331769</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0005768299452029169</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.0006050495430827141</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.0005370676517486572</v>
       </c>
     </row>
     <row r="101">
@@ -2238,16 +3748,31 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>SAU</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.001113424077630043</v>
+        <v>0.000847825373057276</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.001815347583033144</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2256,16 +3781,31 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>OMN</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.0008478253148496151</v>
+        <v>-6.644683162448928e-05</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.0002902597188949585</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2274,16 +3814,31 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>OMN</t>
+          <t>JAM</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-6.644683890044689e-05</v>
+        <v>0.0003405302995815873</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.0005828267894685268</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.0002885305148083717</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.0004565596755128354</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.0002885305148083717</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.0004565596755128354</v>
       </c>
     </row>
     <row r="104">
@@ -2292,16 +3847,31 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>United States Virgin Islands</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>VIR</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.0003405302413739264</v>
+        <v>-2.806165639412939e-06</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.069503650796833e-05</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2310,16 +3880,31 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>United States Virgin Islands</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>VIR</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>-2.806165184665588e-06</v>
+        <v>0.0009813666110858321</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.001448657945729792</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.0003191578725818545</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.0006480637239292264</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.0003191578725818545</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.0006480637239292264</v>
       </c>
     </row>
     <row r="106">
@@ -2328,16 +3913,31 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.0009813663782551885</v>
+        <v>0.002137314062565565</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.002002067165449262</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.001163341803476214</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.001076165004633367</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.001163341803476214</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.001076165004633367</v>
       </c>
     </row>
     <row r="107">
@@ -2346,16 +3946,31 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Puerto Rico</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>PRI</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.002137313829734921</v>
+        <v>0.0005146953044459224</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.0005748661933466792</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0003742124827113003</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.0004291642981115729</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.0003742124827113003</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.0004291642981115729</v>
       </c>
     </row>
     <row r="108">
@@ -2364,16 +3979,31 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Puerto Rico</t>
+          <t>China</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>PRI</t>
+          <t>CHN</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.0005146951880306005</v>
+        <v>0.2454110980033875</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.08427859842777252</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.1085788235068321</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.0464790053665638</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.107122004032135</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.04628200083971024</v>
       </c>
     </row>
     <row r="109">
@@ -2382,16 +4012,31 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.2454111576080322</v>
+        <v>0.2973624765872955</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.1229690760374069</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.1879382282495499</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.09380549192428589</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.1788055300712585</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.09157838672399521</v>
       </c>
     </row>
     <row r="110">
@@ -2400,16 +4045,31 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>DZA</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.2973625659942627</v>
+        <v>-0.002392098773270845</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.005472423974424601</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2.544160633988213e-05</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.0001372557744616643</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2.544160633988213e-05</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.0001372557744616643</v>
       </c>
     </row>
     <row r="111">
@@ -2418,16 +4078,31 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Cayman Islands</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>DZA</t>
+          <t>CYM</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>-0.002392098773270845</v>
+        <v>6.561456871168048e-07</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.744857511061127e-06</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2436,16 +4111,31 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cayman Islands</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CYM</t>
+          <t>LBY</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>6.561456871168048e-07</v>
+        <v>0.0001373296399833634</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.001346888253465295</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2454,16 +4144,31 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>LBY</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.0001373295526718721</v>
+        <v>0.003972262609750032</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.002853001467883587</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0008518664399161935</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.0009434656822122633</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.0008518664399161935</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.0009434656822122633</v>
       </c>
     </row>
     <row r="114">
@@ -2472,16 +4177,31 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.003972263541072607</v>
+        <v>-0.002854175632819533</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.005479218903928995</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2490,16 +4210,31 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Western Sahara</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>ESH</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>-0.002854174468666315</v>
+        <v>3.033197572221979e-05</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.0001018418406601995</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2508,16 +4243,31 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Western Sahara</t>
+          <t>Bir Tawil</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ESH</t>
+          <t>BIR</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3.03319775412092e-05</v>
+        <v>-1.047287014444009e-06</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4.555484792945208e-06</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2526,16 +4276,31 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Bir Tawil</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>BIR</t>
+          <t>BGD</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-1.047286900757172e-06</v>
+        <v>0.006933830678462982</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.003893357003107667</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.001785039901733398</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.0009688071440905333</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.001785039901733398</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.0009688071440905333</v>
       </c>
     </row>
     <row r="118">
@@ -2544,16 +4309,31 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>The Bahamas</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>BGD</t>
+          <t>BHS</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.006933829747140408</v>
+        <v>0.0001848251704359427</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.0002753517765086144</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2.677164161468681e-07</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1.166949004982598e-06</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2.677164161468681e-07</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1.166949004982598e-06</v>
       </c>
     </row>
     <row r="119">
@@ -2562,16 +4342,31 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>The Bahamas</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>EGY</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.0001848251849878579</v>
+        <v>0.0005737603642046452</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.001064533484168351</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3.174161611241288e-05</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.0001413221179973334</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3.174161611241288e-05</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.0001413221179973334</v>
       </c>
     </row>
     <row r="120">
@@ -2580,16 +4375,31 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Hong Kong S.A.R.</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>HKG</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.0005737603059969842</v>
+        <v>0.0001391684199916199</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.0003145700320601463</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2598,16 +4408,31 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Hong Kong S.A.R.</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>HKG</t>
+          <t>TWN</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.0001391683908877894</v>
+        <v>0.001906256657093763</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.001860551652498543</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0008801781805232167</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.0008378837374038994</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.0008801781805232167</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.0008378837374038994</v>
       </c>
     </row>
     <row r="122">
@@ -2616,16 +4441,31 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>TWN</t>
+          <t>ARE</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.001906256889924407</v>
+        <v>7.707184704486281e-05</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.0001485927787143737</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -2634,16 +4474,31 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>7.707181794103235e-05</v>
+        <v>0.00766980554908514</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.0047549894079566</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.0003718428197316825</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.0003169145493302494</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.0003718428197316825</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.0003169145493302494</v>
       </c>
     </row>
     <row r="124">
@@ -2652,16 +4507,31 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>QAT</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.007669806014746428</v>
+        <v>2.058150494121946e-05</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.759093644679524e-05</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2670,16 +4540,31 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>QAT</t>
+          <t>IRN</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2.058149038930424e-05</v>
+        <v>0.00265172217041254</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.004636519588530064</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-0.0002512746432330459</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.0004091709561180323</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-0.0002512746432330459</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.0004091709561180323</v>
       </c>
     </row>
     <row r="126">
@@ -2688,16 +4573,31 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>IRN</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.002651722403243184</v>
+        <v>0.02036185562610626</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.01149228401482105</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.01347804721444845</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.007380030117928982</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.0133832385763526</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.007327092345803976</v>
       </c>
     </row>
     <row r="127">
@@ -2706,16 +4606,31 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>NPL</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.02036185562610626</v>
+        <v>0.006716145668178797</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.003160425694659352</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.005304671823978424</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.002245055744424462</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.005273757502436638</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.002248690230771899</v>
       </c>
     </row>
     <row r="128">
@@ -2724,16 +4639,31 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>NPL</t>
+          <t>BTN</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.006716143805533648</v>
+        <v>0.001642042538151145</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.001371359336189926</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.001614015433005989</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.001369333476759493</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.00145032920408994</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.0012918267166242</v>
       </c>
     </row>
     <row r="129">
@@ -2742,16 +4672,31 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>BTN</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.001642042538151145</v>
+        <v>0.007670175284147263</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.007182055152952671</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.003142872592434287</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.003066440811380744</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.003142872592434287</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.003066440811380744</v>
       </c>
     </row>
     <row r="130">
@@ -2760,16 +4705,31 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>KWT</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.007670175284147263</v>
+        <v>2.722893441386987e-06</v>
+      </c>
+      <c r="E130" t="n">
+        <v>6.133047281764448e-05</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -2778,16 +4738,31 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>KWT</t>
+          <t>JOR</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2.722891167650232e-06</v>
+        <v>0.0001177608573925681</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.0001778448495315388</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2796,16 +4771,31 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>JOR</t>
+          <t>IRQ</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.0001177608719444834</v>
+        <v>0.001401650602929294</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.001670916331931949</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2814,16 +4804,31 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>IRQ</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.001401650602929294</v>
+        <v>0.003867652732878923</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.002688397886231542</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.0001076423359336331</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.0001691278739599511</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.0001076423359336331</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.0001691278739599511</v>
       </c>
     </row>
     <row r="134">
@@ -2832,16 +4837,31 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ISR</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.003867652267217636</v>
+        <v>0.0002185800694860518</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.0002115538227371871</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -2850,16 +4870,31 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>ISR</t>
+          <t>TUN</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.000218580084037967</v>
+        <v>-0.0003339316172059625</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.001104741590097547</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2868,16 +4903,31 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Palestine</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>PSE</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-0.0003339315881021321</v>
+        <v>0.0001149333547800779</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.0002875243953894824</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -2886,16 +4936,31 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>PSE</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.0001149333256762475</v>
+        <v>0.001685538794845343</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.00171351688914001</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.000876711041200906</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.0008543692529201508</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.000876711041200906</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.0008543692529201508</v>
       </c>
     </row>
     <row r="138">
@@ -2904,16 +4969,31 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>SYR</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.001685538794845343</v>
+        <v>0.001198089914396405</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.001085008610971272</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2.187362042604946e-05</v>
+      </c>
+      <c r="G138" t="n">
+        <v>3.449684663792141e-05</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2.187362042604946e-05</v>
+      </c>
+      <c r="I138" t="n">
+        <v>3.449684663792141e-05</v>
       </c>
     </row>
     <row r="139">
@@ -2922,16 +5002,31 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SYR</t>
+          <t>LBN</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.001198089797981083</v>
+        <v>0.000151241198182106</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.000153549131937325</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -2940,16 +5035,31 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>LBN</t>
+          <t>KOR</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.0001512412272859365</v>
+        <v>0.005725137889385223</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.00438745180144906</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.002863553119823337</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.002227657940238714</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.002863553119823337</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.002227657940238714</v>
       </c>
     </row>
     <row r="141">
@@ -2958,16 +5068,31 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>CYP</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.005725137423723936</v>
+        <v>5.819055877509527e-05</v>
+      </c>
+      <c r="E141" t="n">
+        <v>7.836824079276994e-05</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4.875711510976544e-06</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1.086064003175125e-05</v>
+      </c>
+      <c r="H141" t="n">
+        <v>4.875711510976544e-06</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1.086064003175125e-05</v>
       </c>
     </row>
     <row r="142">
@@ -2976,16 +5101,31 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>CYP</t>
+          <t>GRC</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>5.819055513711646e-05</v>
+        <v>0.004496735520660877</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.002151230582967401</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.001766248606145382</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.0008428370347246528</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.001766248606145382</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.0008428370347246528</v>
       </c>
     </row>
     <row r="143">
@@ -2994,16 +5134,31 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Northern Cyprus</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>GRC</t>
+          <t>CYN</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.004496734123677015</v>
+        <v>4.328183422330767e-05</v>
+      </c>
+      <c r="E143" t="n">
+        <v>6.476694397861138e-05</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-1.697304981007619e-07</v>
+      </c>
+      <c r="G143" t="n">
+        <v>7.398379580081382e-07</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-1.697304981007619e-07</v>
+      </c>
+      <c r="I143" t="n">
+        <v>7.398379580081382e-07</v>
       </c>
     </row>
     <row r="144">
@@ -3012,16 +5167,31 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Northern Cyprus</t>
+          <t>Siachen Glacier</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>CYN</t>
+          <t>SGR</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>4.328183786128648e-05</v>
+        <v>2.380214027652983e-05</v>
+      </c>
+      <c r="E144" t="n">
+        <v>7.017567986622453e-05</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3030,16 +5200,31 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Siachen Glacier</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SGR</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2.380214573349804e-05</v>
+        <v>0.001445521833375096</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.001436288002878428</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -3048,16 +5233,31 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.001445521833375096</v>
+        <v>0.01720332726836205</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.006677673198282719</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.003837775904685259</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.002155683003365993</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.003837775904685259</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.002155683003365993</v>
       </c>
     </row>
     <row r="147">
@@ -3066,16 +5266,31 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0.01720332726836205</v>
+        <v>0.003130009165033698</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.004319292958825827</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.001607117475941777</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.002500024624168873</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.001607117475941777</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.002500024624168873</v>
       </c>
     </row>
     <row r="148">
@@ -3084,16 +5299,31 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.003130009863525629</v>
+        <v>0.001682562520727515</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.001240228186361492</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3102,16 +5332,31 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.001682562520727515</v>
+        <v>0.001797981909476221</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.001489693648181856</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -3120,16 +5365,31 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>North Korea</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>PRK</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0.001797981443814933</v>
+        <v>0.006247762590646744</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.003020544303581119</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.004147583153098822</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.002072161063551903</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.004147583153098822</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.002072161063551903</v>
       </c>
     </row>
     <row r="151">
@@ -3138,16 +5398,31 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>North Korea</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>PRK</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.006247762124985456</v>
+        <v>0.0006638768245466053</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.001315155648626387</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.0001858990581240505</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.0003640944778453559</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.0001858990581240505</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.0003640944778453559</v>
       </c>
     </row>
     <row r="152">
@@ -3156,16 +5431,31 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0.0006638767081312835</v>
+        <v>0.0001348128716927022</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.0007619530078954995</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -3174,16 +5464,31 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.0001348128862446174</v>
+        <v>0.003273488488048315</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.002236158819869161</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -3192,16 +5497,31 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>ALB</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.003273488488048315</v>
+        <v>0.0009591271518729627</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.000670073670335114</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.000520109198987484</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.0003173324512317777</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.000520109198987484</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.0003173324512317777</v>
       </c>
     </row>
     <row r="155">
@@ -3210,16 +5530,31 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.0009591272100806236</v>
+        <v>0.0224697832018137</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.01703165285289288</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.0006273378385230899</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.0003780600673053414</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.0006273378385230899</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.0003780600673053414</v>
       </c>
     </row>
     <row r="156">
@@ -3228,16 +5563,31 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>MKD</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.02246977761387825</v>
+        <v>0.001116458442993462</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.0007052440196275711</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.000751372252125293</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.0006815499509684741</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.000751372252125293</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.0006815499509684741</v>
       </c>
     </row>
     <row r="157">
@@ -3246,16 +5596,31 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>MKD</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0.001116458442993462</v>
+        <v>0.003747843205928802</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.002093853428959846</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.002360605169087648</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.001403077156282961</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.002360605169087648</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.001403077156282961</v>
       </c>
     </row>
     <row r="158">
@@ -3264,16 +5629,31 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.003747842740267515</v>
+        <v>0.00175331742502749</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.001316258800216019</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.001092697493731976</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.0008296211599372327</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.0009055937989614904</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.0007641009869985282</v>
       </c>
     </row>
     <row r="159">
@@ -3282,16 +5662,31 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.001753317308612168</v>
+        <v>0.3987873494625092</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.1631787419319153</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.2885995507240295</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.1233508214354515</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.2261288017034531</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.09763920307159424</v>
       </c>
     </row>
     <row r="160">
@@ -3300,16 +5695,31 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.3987874686717987</v>
+        <v>0.2132208645343781</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.09355613589286804</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.1726189106702805</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.06979075074195862</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.1051948368549347</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.0432237796485424</v>
       </c>
     </row>
     <row r="161">
@@ -3318,16 +5728,31 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>MNG</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.2132208794355392</v>
+        <v>0.01485640276223421</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.008642349392175674</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.001229400630109012</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.0007710565696470439</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.0009612400899641216</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.0007064206874929368</v>
       </c>
     </row>
     <row r="162">
@@ -3336,16 +5761,31 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>MNE</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.01485640462487936</v>
+        <v>0.0006181070348247886</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.0004369631933514029</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.0004405970394145697</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.0003694509214255959</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.0004405970394145697</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.0003694509214255959</v>
       </c>
     </row>
     <row r="163">
@@ -3354,16 +5794,31 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Kosovo</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>MNE</t>
+          <t>XKX</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.0006181070930324495</v>
+        <v>0.0004108365974389017</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.0002844491391442716</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.0003269115404691547</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.0002214796841144562</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.0003269115404691547</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.0002214796841144562</v>
       </c>
     </row>
     <row r="164">
@@ -3372,16 +5827,31 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Kosovo</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>XKX</t>
+          <t>BIH</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.0004108365392312407</v>
+        <v>0.00178710906766355</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.001297646551392972</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.001223998959176242</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.000900579325389117</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.001223998959176242</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0.000900579325389117</v>
       </c>
     </row>
     <row r="165">
@@ -3390,16 +5860,31 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Republic of Serbia</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>BIH</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.001787108718417585</v>
+        <v>0.001864593592472374</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.001584837445989251</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.001428654883056879</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.001023223740048707</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.001428654883056879</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.001023223740048707</v>
       </c>
     </row>
     <row r="166">
@@ -3408,16 +5893,31 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Republic of Serbia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>HRV</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.001864593708887696</v>
+        <v>0.001755217206664383</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.001461474341340363</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.001184221357107162</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.001072661369107664</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.001184221357107162</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.001072661369107664</v>
       </c>
     </row>
     <row r="167">
@@ -3426,16 +5926,31 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>HRV</t>
+          <t>ROU</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.001755216158926487</v>
+        <v>0.004548077937215567</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.004840088076889515</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.003254127455875278</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.00304036820307374</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.003254127455875278</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.00304036820307374</v>
       </c>
     </row>
     <row r="168">
@@ -3444,16 +5959,31 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.004548078402876854</v>
+        <v>0.007142750080674887</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.01414260361343622</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.001836036564782262</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.003700247034430504</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.001836036564782262</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.003700247034430504</v>
       </c>
     </row>
     <row r="169">
@@ -3462,16 +5992,31 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.007142749615013599</v>
+        <v>0.0007813192787580192</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.0006298641092143953</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.0007813192787580192</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.0006298641092143953</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.0007813192787580192</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.0006298641092143953</v>
       </c>
     </row>
     <row r="170">
@@ -3480,16 +6025,31 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Moldova</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.0007813189295120537</v>
+        <v>0.0003638059133663774</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.0006650388240814209</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -3498,16 +6058,31 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Baykonur Cosmodrome</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>BAY</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.0003638059424702078</v>
+        <v>1.79140261025168e-05</v>
+      </c>
+      <c r="E171" t="n">
+        <v>4.637499660020694e-05</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -3516,16 +6091,31 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Baykonur Cosmodrome</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>BAY</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1.79140242835274e-05</v>
+        <v>0.0009944983758032322</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.0008748096879571676</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.0006161939818412066</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.0007341794553212821</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.0006161939818412066</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.0007341794553212821</v>
       </c>
     </row>
     <row r="173">
@@ -3534,16 +6124,31 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>HUN</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.0009944986086338758</v>
+        <v>0.00109787646215409</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.002329393988475204</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.0005118324188515544</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.00056875916197896</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.0005118324188515544</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.00056875916197896</v>
       </c>
     </row>
     <row r="174">
@@ -3552,16 +6157,31 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>HUN</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.001097876229323447</v>
+        <v>0.002643496263772249</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.001878735609352589</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.002294600941240788</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.001745306537486613</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.002294600941240788</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.001745306537486613</v>
       </c>
     </row>
     <row r="175">
@@ -3570,16 +6190,31 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.002643495798110962</v>
+        <v>0.00184780964627862</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.008267577737569809</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.001443166634999216</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.006372129544615746</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.001443166634999216</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.006372129544615746</v>
       </c>
     </row>
     <row r="176">
@@ -3588,16 +6223,31 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>SVK</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.001847808714956045</v>
+        <v>0.001525015337392688</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.001064679701812565</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.001358132809400558</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.0009189161355607212</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.001358132809400558</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.0009189161355607212</v>
       </c>
     </row>
     <row r="177">
@@ -3606,16 +6256,31 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.001525015220977366</v>
+        <v>0.001035104040056467</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.001531978603452444</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.0008024261333048344</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.001130017102696002</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.0008024261333048344</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.001130017102696002</v>
       </c>
     </row>
     <row r="178">
@@ -3624,16 +6289,31 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0.001035104505717754</v>
+        <v>0.005197657737880945</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.008049651049077511</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.00253893225453794</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.004559297114610672</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.00253893225453794</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.004559297114610672</v>
       </c>
     </row>
     <row r="179">
@@ -3642,16 +6322,31 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0.00519765866920352</v>
+        <v>0.0002905614965129644</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.0006911562522873282</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.0001093395985662937</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.0003113736456725746</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.0001093395985662937</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.0003113736456725746</v>
       </c>
     </row>
     <row r="180">
@@ -3660,16 +6355,31 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0.000290561409201473</v>
+        <v>9.848005902313162e-06</v>
+      </c>
+      <c r="E180" t="n">
+        <v>7.486437243642285e-05</v>
+      </c>
+      <c r="F180" t="n">
+        <v>9.848005902313162e-06</v>
+      </c>
+      <c r="G180" t="n">
+        <v>7.486437243642285e-05</v>
+      </c>
+      <c r="H180" t="n">
+        <v>9.848005902313162e-06</v>
+      </c>
+      <c r="I180" t="n">
+        <v>7.486437243642285e-05</v>
       </c>
     </row>
     <row r="181">
@@ -3678,16 +6388,31 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>9.848001354839653e-06</v>
+        <v>0.004495314788073301</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.004271743819117546</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.0003635780012700707</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.0003602643264457583</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.0003635780012700707</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.0003602643264457583</v>
       </c>
     </row>
     <row r="182">
@@ -3696,16 +6421,31 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0.004495313856750727</v>
+        <v>0.000504955998621881</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.0007989738951437175</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3.051348176086321e-05</v>
+      </c>
+      <c r="G182" t="n">
+        <v>7.270828791661188e-05</v>
+      </c>
+      <c r="H182" t="n">
+        <v>3.051348176086321e-05</v>
+      </c>
+      <c r="I182" t="n">
+        <v>7.270828791661188e-05</v>
       </c>
     </row>
     <row r="183">
@@ -3714,16 +6454,31 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>IRL</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0.0005049557657912374</v>
+        <v>0.001561570097692311</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.002518578432500362</v>
+      </c>
+      <c r="F183" t="n">
+        <v>4.491179061005823e-05</v>
+      </c>
+      <c r="G183" t="n">
+        <v>9.096205758396536e-05</v>
+      </c>
+      <c r="H183" t="n">
+        <v>4.491179061005823e-05</v>
+      </c>
+      <c r="I183" t="n">
+        <v>9.096205758396536e-05</v>
       </c>
     </row>
     <row r="184">
@@ -3732,16 +6487,31 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>IRL</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0.001561569748446345</v>
+        <v>0.006612721830606461</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.00529787503182888</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.005500083789229393</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.00435958057641983</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.005500083789229393</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.00435958057641983</v>
       </c>
     </row>
     <row r="185">
@@ -3750,16 +6520,31 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0.006612721830606461</v>
+        <v>0.002565484028309584</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.001534139504656196</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.001914810854941607</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.001224207342602313</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.001914810854941607</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.001224207342602313</v>
       </c>
     </row>
     <row r="186">
@@ -3768,16 +6553,31 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>DNK</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0.00256548379547894</v>
+        <v>0.001042013405822217</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.001200265716761351</v>
+      </c>
+      <c r="F186" t="n">
+        <v>3.378038309165277e-05</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.0001003318102448247</v>
+      </c>
+      <c r="H186" t="n">
+        <v>3.378038309165277e-05</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.0001003318102448247</v>
       </c>
     </row>
     <row r="187">
@@ -3786,16 +6586,31 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0.00104201294016093</v>
+        <v>0.01451447512954473</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.007100267335772514</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.01212787069380283</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.005927804857492447</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.01185334753245115</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.005815246608108282</v>
       </c>
     </row>
     <row r="188">
@@ -3804,16 +6619,31 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0.01451447792351246</v>
+        <v>0.002546700648963451</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.001568244304507971</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.002541387220844626</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.001571516622789204</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.002541387220844626</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.001571516622789204</v>
       </c>
     </row>
     <row r="189">
@@ -3822,16 +6652,31 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0.002546700416132808</v>
+        <v>0.001795537071302533</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.001347651472315192</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.001572332577779889</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.001113577629439533</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.001572332577779889</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.001113577629439533</v>
       </c>
     </row>
     <row r="190">
@@ -3840,16 +6685,31 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.001795537187717855</v>
+        <v>0.008423433639109135</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.006191227585077286</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.004814027808606625</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.002767291385680437</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.00478455051779747</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.002742463955655694</v>
       </c>
     </row>
     <row r="191">
@@ -3858,16 +6718,31 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Greenland</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>GRL</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0.008423434570431709</v>
+        <v>0.0005596766131930053</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.001585790887475014</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -3876,16 +6751,31 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Greenland</t>
+          <t>Aland</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>GRL</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0.0005596766714006662</v>
+        <v>5.957400207989849e-05</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.0001664959563640878</v>
+      </c>
+      <c r="F192" t="n">
+        <v>3.392070311747375e-06</v>
+      </c>
+      <c r="G192" t="n">
+        <v>9.229766874341294e-06</v>
+      </c>
+      <c r="H192" t="n">
+        <v>3.392070311747375e-06</v>
+      </c>
+      <c r="I192" t="n">
+        <v>9.229766874341294e-06</v>
       </c>
     </row>
     <row r="193">
@@ -3894,16 +6784,31 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Aland</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>FIN</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>5.957400207989849e-05</v>
+        <v>0.009680908173322678</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.004675016272813082</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.008842223323881626</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.004365182481706142</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.008740691468119621</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.004308045841753483</v>
       </c>
     </row>
     <row r="194">
@@ -3912,16 +6817,31 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Faroe Islands</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.009680901654064655</v>
+        <v>4.391407401271863e-06</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.243044971488416e-05</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -3930,34 +6850,31 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Faroe Islands</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>4.39140603702981e-06</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>ISL</t>
-        </is>
-      </c>
-      <c r="D196" t="n">
-        <v>0.00113764766138047</v>
+        <v>0.001137647544965148</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.002354360418394208</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
